--- a/SDK/接口测试报告.xlsx
+++ b/SDK/接口测试报告.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试内容及结果" sheetId="3" r:id="rId1"/>
+    <sheet name="Common" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="60">
   <si>
     <t>测试地点：</t>
   </si>
@@ -521,10 +522,124 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,105 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -944,1428 +960,1376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27:D28"/>
+      <selection pane="bottomRight" sqref="A1:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="25" customWidth="1"/>
-    <col min="5" max="5" width="28" style="24" customWidth="1"/>
-    <col min="6" max="6" width="74.375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="50.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="51" style="24" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="24" customWidth="1"/>
-    <col min="10" max="10" width="41.625" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="28" style="14" customWidth="1"/>
+    <col min="6" max="6" width="74.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="50.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="51" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="14" customWidth="1"/>
+    <col min="10" max="10" width="41.625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="9"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="32" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="18" t="s">
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="18" t="s">
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="32" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="18" t="s">
+      <c r="I12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="A13" s="4">
         <v>5</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="18" t="s">
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="32" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="18" t="s">
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="A15" s="4">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="18" t="s">
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="A16" s="4">
         <v>8</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="15" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="18" t="s">
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="18" t="s">
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+      <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="21" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="18" t="s">
+      <c r="I18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="241.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
-        <v>11</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="18" t="s">
+      <c r="I19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
-        <v>12</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="32" t="s">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="18" t="s">
+      <c r="I20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="18" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="18" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
+      <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="18" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12">
+      <c r="A24" s="4">
         <v>10</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="18" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
-        <v>11</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="4">
+        <v>11</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="18" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
-        <v>12</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="18" t="s">
+      <c r="A26" s="4">
+        <v>12</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12">
-        <v>11</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="33" t="s">
+      <c r="A27" s="4">
+        <v>11</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="18" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
-        <v>12</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="18" t="s">
+      <c r="A28" s="4">
+        <v>12</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
-        <v>11</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="33" t="s">
+      <c r="A29" s="4">
+        <v>11</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="18" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12">
-        <v>12</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="18" t="s">
+      <c r="A30" s="4">
+        <v>12</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="12">
-        <v>11</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="18" t="s">
+      <c r="A31" s="4">
+        <v>11</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12">
-        <v>12</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="18" t="s">
+      <c r="A32" s="4">
+        <v>12</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12">
-        <v>11</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="18" t="s">
+      <c r="A33" s="4">
+        <v>11</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
-        <v>12</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="18" t="s">
+      <c r="A34" s="4">
+        <v>12</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12">
-        <v>11</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="18" t="s">
+      <c r="A35" s="4">
+        <v>11</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="12">
-        <v>12</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="18" t="s">
+      <c r="A36" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12">
-        <v>11</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="18" t="s">
+      <c r="A37" s="4">
+        <v>11</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12">
-        <v>12</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="18" t="s">
+      <c r="A38" s="4">
+        <v>12</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12">
-        <v>11</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="18" t="s">
+      <c r="A39" s="4">
+        <v>11</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12">
-        <v>12</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="18" t="s">
+      <c r="A40" s="4">
+        <v>12</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="12">
-        <v>11</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="18" t="s">
+      <c r="A41" s="4">
+        <v>11</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="12">
-        <v>12</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="18" t="s">
+      <c r="A42" s="4">
+        <v>12</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12">
-        <v>11</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="18" t="s">
+      <c r="A43" s="4">
+        <v>11</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12">
-        <v>12</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="18" t="s">
+      <c r="A44" s="4">
+        <v>12</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12">
-        <v>11</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J45" s="18" t="s">
+      <c r="A45" s="4">
+        <v>11</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="12">
-        <v>12</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="18" t="s">
+      <c r="A46" s="4">
+        <v>12</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12">
-        <v>11</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="18" t="s">
+      <c r="A47" s="4">
+        <v>11</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="12">
-        <v>12</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="18" t="s">
+      <c r="A48" s="4">
+        <v>12</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="12">
-        <v>11</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="18" t="s">
+      <c r="A49" s="4">
+        <v>11</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12">
-        <v>12</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="18" t="s">
+      <c r="A50" s="4">
+        <v>12</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12">
-        <v>11</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="18" t="s">
+      <c r="A51" s="4">
+        <v>11</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="12">
-        <v>12</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="18" t="s">
+      <c r="A52" s="4">
+        <v>12</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="12">
-        <v>11</v>
-      </c>
-      <c r="B53" s="36"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="18" t="s">
+      <c r="A53" s="4">
+        <v>11</v>
+      </c>
+      <c r="B53" s="31"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="12">
-        <v>12</v>
-      </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="18" t="s">
+      <c r="A54" s="4">
+        <v>12</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="12">
-        <v>11</v>
-      </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="18" t="s">
+      <c r="A55" s="4">
+        <v>11</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="12">
-        <v>12</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="18" t="s">
+      <c r="A56" s="4">
+        <v>12</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="12">
-        <v>11</v>
-      </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="18" t="s">
+      <c r="A57" s="4">
+        <v>11</v>
+      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="12">
-        <v>12</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="18" t="s">
+      <c r="A58" s="4">
+        <v>12</v>
+      </c>
+      <c r="B58" s="31"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="12">
-        <v>11</v>
-      </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J59" s="18" t="s">
+      <c r="A59" s="4">
+        <v>11</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="12">
-        <v>12</v>
-      </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" s="18" t="s">
+      <c r="A60" s="4">
+        <v>12</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="12">
-        <v>11</v>
-      </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" s="18" t="s">
+      <c r="A61" s="4">
+        <v>11</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12">
-        <v>12</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="18" t="s">
+      <c r="A62" s="4">
+        <v>12</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="12">
-        <v>11</v>
-      </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="18" t="s">
+      <c r="A63" s="4">
+        <v>11</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="12">
-        <v>12</v>
-      </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="18" t="s">
+      <c r="A64" s="4">
+        <v>12</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="12">
-        <v>11</v>
-      </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="18" t="s">
+      <c r="A65" s="4">
+        <v>11</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="12">
-        <v>12</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="18" t="s">
+      <c r="A66" s="4">
+        <v>12</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="12">
-        <v>11</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="18" t="s">
+      <c r="A67" s="4">
+        <v>11</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="12">
-        <v>12</v>
-      </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="18" t="s">
+      <c r="A68" s="4">
+        <v>12</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
@@ -2382,22 +2346,74 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -2408,4 +2424,931 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="51.75" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="8" max="8" width="29.125" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="73.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38"/>
+    </row>
+    <row r="3" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="17">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="17">
+        <v>11</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="17">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="17">
+        <v>12</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="17">
+        <v>11</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="17">
+        <v>12</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="17">
+        <v>11</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="17">
+        <v>12</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="17">
+        <v>11</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="17">
+        <v>12</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="17">
+        <v>11</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="17">
+        <v>12</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="17">
+        <v>11</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="17">
+        <v>12</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="17">
+        <v>11</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="17">
+        <v>12</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="17">
+        <v>11</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="17">
+        <v>12</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="17">
+        <v>11</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="17">
+        <v>12</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="17">
+        <v>11</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="17">
+        <v>12</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="17">
+        <v>11</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="17">
+        <v>12</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="17">
+        <v>11</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="17">
+        <v>12</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17">
+        <v>12</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="A43" s="17">
+        <v>11</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="17">
+        <v>12</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B15:B44"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I44">
+      <formula1>"通过,未通过,未测试"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>